--- a/results/df-seven-scores.xlsx
+++ b/results/df-seven-scores.xlsx
@@ -365,37 +365,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ML1</t>
+          <t>dugwell</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>ML6</t>
+          <t>spring</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ML3</t>
+          <t>piped_home</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ML5</t>
+          <t>piped_yard_tap</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ML2</t>
+          <t>cheap_commercial</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ML7</t>
+          <t>surface_water</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ML4</t>
+          <t>thirthy_min_less_travel</t>
         </is>
       </c>
     </row>

--- a/results/df-seven-scores.xlsx
+++ b/results/df-seven-scores.xlsx
@@ -365,37 +365,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>dugwell</t>
+          <t>ML1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>ML6</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>piped_home</t>
+          <t>ML3</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>piped_yard_tap</t>
+          <t>ML5</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>cheap_commercial</t>
+          <t>ML2</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>surface_water</t>
+          <t>ML7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>thirthy_min_less_travel</t>
+          <t>ML4</t>
         </is>
       </c>
     </row>
